--- a/RippleStreet_API/src/test/resources/EventController.xlsx
+++ b/RippleStreet_API/src/test/resources/EventController.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashanthchigarer\eclipse-workspace\EventController\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashanthchigarer\eclipse-workspace\RippleStreet_API\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E839D8-097A-4012-A396-9B5320656168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754D8B00-3BB4-4F3A-9505-AA7BDF0A9194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="60" windowWidth="18500" windowHeight="10130" activeTab="1" xr2:uid="{76379156-385B-4CE0-9353-DC164ABCD207}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="614">
   <si>
     <t>[{"created":null,"modified":null,"id":13723,"eventId":2128,"eventName":"Automation CB Event","phase":null,"type":"application","starts":"2023-06-01 11:42:00","ends":"2024-04-30 23:59:00","description":null,"currentMileStone":true,"lockedDate":false,"deleted":false},{"created":null,"modified":null,"id":13728,"eventId":2128,"eventName":"Automation CB Event","phase":null,"type":"reporting","starts":"2023-06-01 11:46:00","ends":"2024-06-30 11:46:00","description":null,"currentMileStone":true,"lockedDate":false,"deleted":false}]</t>
   </si>
@@ -3700,6 +3700,231 @@
   <si>
     <t>ResetNotificationStatus</t>
   </si>
+  <si>
+    <t>sendPublishUnpublishNotification</t>
+  </si>
+  <si>
+    <t>{"status":"Failure","errors":["Schedule date cannot be in past !","Please select the recipient type !"]}</t>
+  </si>
+  <si>
+    <t>resetNotificationRecepientData</t>
+  </si>
+  <si>
+    <t>templateControllerPutApi</t>
+  </si>
+  <si>
+    <t>udateTransactionalTemplate</t>
+  </si>
+  <si>
+    <t>RecipientsControllerPutApi</t>
+  </si>
+  <si>
+    <t>deleteRecipientsByCampaignId</t>
+  </si>
+  <si>
+    <t>Record is Deleted Successfully</t>
+  </si>
+  <si>
+    <t>{
+  "email": "lalithastaging@gmail.com",
+  "name": "Automation Agency",
+  "phoneNumber": "8610955475"
+}</t>
+  </si>
+  <si>
+    <t>AgencyControllerPutApi</t>
+  </si>
+  <si>
+    <t>updateAgency</t>
+  </si>
+  <si>
+    <t>{"created":"2023-06-13 02:06:24","modified":"2023-07-06 05:03:22","id":35,"name":"Automation Agency","email":"lalithastaging@gmail.com","phoneNumber":"8610955475","deleted":false,"contacts":[{"created":"2023-06-13 02:07:20","modified":"2023-06-13 02:07:20","id":40,"name":"Prasanth","designation":"QA","department":"QA","email":"lalithachandrasekar9@gmail.com","phoneNumber":"7373448249"}]}</t>
+  </si>
+  <si>
+    <t>{"created":"2023-06-13 02:06:24","modified":"2023-07-06 05:03:51","id":35,"name":"Automation Agency","email":"lalithastaging@gmail.com","phoneNumber":"8610955475","deleted":false,"contacts":[{"created":"2023-06-13 02:07:20","modified":"2023-06-13 02:07:20","id":40,"name":"Prasanth","designation":"QA","department":"QA","email":"lalithachandrasekar9@gmail.com","phoneNumber":"7373448249"}]}</t>
+  </si>
+  <si>
+    <t>softDeleteByAssetId</t>
+  </si>
+  <si>
+    <t>AssetControllerPutApi</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CampaignControllerPutApi</t>
+  </si>
+  <si>
+    <t>UpdateCampaign</t>
+  </si>
+  <si>
+    <t>{
+  "id": 199,
+  "campaignName": "Automation Campaign",
+  "orderId": 12345,
+  "agency": {
+    "id": 35,
+    "name": "Automation Agency"
+  },
+  "startDate": "2023-06-13",
+  "endDate": "2023-06-13",
+  "sponsor": {
+    "id": 587,
+    "name": "Automation Sponsor",
+    "slug": "automationsponsor",
+    "summary": "Automation Sponsor",
+    "description": "&lt;p&gt;Automation Sponsor&lt;/p&gt;\n",
+    "deleted": false,
+    "active": true,
+    "discoverable": true,
+    "featured": false,
+    "premium": false,
+    "adultOnly": true,
+    "terms": "",
+    "website": "",
+    "facebook": "",
+    "twitter": "",
+    "pinterest": "",
+    "instagram": "",
+    "pgUnivWelcome": null,
+    "customCss": null,
+    "customJs": null,
+    "customTrackingTags": null,
+    "facebookEmbed": null,
+    "twitterSearch": null,
+    "fbUsername": null,
+    "fbPageId": null,
+    "fbPageSlug": null,
+    "fbEventId": null,
+    "personCount": 0,
+    "discussionCount": 0,
+    "likeCount": 0,
+    "featuredStart": null,
+    "featuredEnd": null,
+    "created": "2023-06-13 02:08:03",
+    "modified": "2023-06-13 02:08:03"
+  },
+  "campaignManager": {
+    "id": 9593101,
+    "name": "Lalitha"
+  },
+  "contacts": [
+    {
+      "id": 40,
+      "name": "Prasanth",
+      "designation": "QA",
+      "department": "QA",
+      "email": "lalithachandrasekar9@gmail.com",
+      "phoneNumber": "7373448249"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>creativeControllerPutApi</t>
+  </si>
+  <si>
+    <t>updateBannerIdandEventId</t>
+  </si>
+  <si>
+    <t>{
+  "basename": "images.jpg",
+  "description": "",
+  "fileType": "IMAGE",
+  "mimeType": "image/jpeg",
+  "name": null,
+  "personId": 9593101
+}</t>
+  </si>
+  <si>
+    <t>UpdateFavours</t>
+  </si>
+  <si>
+    <t>{
+  "description": "Event Logo",
+  "title": "Event Logo",
+  "body": "",
+  "adminNotes": "",
+  "slug": "ed6f5d10-2c10-4bad-87b1-e7c12c1f95ac",
+  "order": 1,
+  "viewed": 0,
+  "downloaded": 0,
+  "published": "2023-06-27 09:06:57",
+  "expires": null,
+  "mediaAssetResponse": null,
+  "fileAssetResponse": {
+    "id": 3504553,
+    "basename": "autologo.jpg",
+    "name": "string",
+    "mimeType": "image/jpeg",
+    "description": "string",
+    "hlsPlaylistUrl": "https://stg-media.ripplestreet.com/basset/fe448fe01d15d317748bf9694a514464/original/autologo.jpg",
+    "mp4Url": "null",
+    "webmUrl": "null",
+    "thumbNail": "null",
+    "assetType": "Document"
+  }
+}</t>
+  </si>
+  <si>
+    <t>reOrganizefavors</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "favorId": 6281,
+    "order": 1
+  }
+]</t>
+  </si>
+  <si>
+    <t>UpdateHeroPlayListItems</t>
+  </si>
+  <si>
+    <t>{
+  "playlistId": 220,
+  "assetId": 1106028,
+  "order": 1,
+  "uri": null,
+  "adminNotes": null,
+  "assetResponse": {
+    "id": 1106028,
+    "basename": "phillycookingcreme_pvslides_2.jpg",
+    "name": null,
+    "mimeType": "image/jpeg",
+    "description": null,
+    "hlsPlaylistUrl": "https://stg-media.ripplestreet.com/basset/d8c070c2ecc073f98a5696af54d727ed/original/phillycookingcreme_pvslides_2.jpg",
+    "mp4Url": "null",
+    "webmUrl": "null",
+    "thumbNail": "null",
+    "assetType": "Image"
+  }
+}</t>
+  </si>
+  <si>
+    <t>HeroPlayListItems Successfully updated for Playlist with playlistItemId 9926</t>
+  </si>
+  <si>
+    <t>reOrganizeHeroPlayListItems</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"JSON parse Error","debugMessage":"Required request body is missing: public org.springframework.http.ResponseEntity&lt;java.lang.Integer&gt; com.ripplestreet.event.campaign.manager.controller.CreativeController.reorganizeHeroPlaylistItems(java.util.List&lt;com.ripplestreet.event.campaign.manager.request.ReorganizePlaylistItemsRequest&gt;)"}</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "order": 1,
+    "playListItemId": 9926
+  }
+]</t>
+  </si>
+  <si>
+    <t>{"timestamp":1688636667172,"status":500,"error":"Internal Server Error","path":"/event-campaign-manager/v1/creative/event/2128/favors/6281"}</t>
+  </si>
 </sst>
 </file>
 
@@ -7194,8 +7419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B88183-9D3C-4CC3-B72B-A3BFF9E41B0C}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="C47" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7820,88 +8045,188 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>580</v>
+      </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>582</v>
+      </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>584</v>
+      </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="109" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>586</v>
+      </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="D41" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="A42" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>593</v>
+      </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="D43" s="11">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="A44" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D44" s="11">
+        <v>199</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>602</v>
+      </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="115" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>604</v>
+      </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="E46" s="11" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="A47" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D47" s="11">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
